--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Visionfolder\Framework_Batch16\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119EE1B3-EFA9-4B77-980C-D731C4DFCE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6898C45E-8747-4688-A227-5F2421AE35F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginModule" sheetId="1" r:id="rId1"/>
     <sheet name="HomePageModule" sheetId="2" r:id="rId2"/>
+    <sheet name="RegistrationModule" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Test@Gmail.com</t>
   </si>
@@ -41,6 +42,21 @@
   </si>
   <si>
     <t>email id</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>AbcTest</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>emailId</t>
+  </si>
+  <si>
+    <t>Mobile NO</t>
   </si>
 </sst>
 </file>
@@ -64,12 +80,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -85,9 +107,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -400,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA56AE1-C4F0-4D4E-A847-01DF880E8F91}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,4 +446,42 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBED4EB-FE37-4C42-BB7A-32A241C79151}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>